--- a/Supplemental Table 5 (CSF Proteomics Table).xlsx
+++ b/Supplemental Table 5 (CSF Proteomics Table).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briansandri/Dropbox/Double Dip Paper/Revised Proteomic Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF7E60-AB86-524C-B8AC-0169B297073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D2CD8-2696-A044-9E58-CF0498C36D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24160" yWindow="600" windowWidth="26380" windowHeight="22840" xr2:uid="{C6E8C3F9-E5ED-2042-921F-136E55DA98EA}"/>
   </bookViews>
@@ -8314,7 +8314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8372,6 +8372,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8393,7 +8400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -8414,6 +8421,7 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8730,15 +8738,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01086A46-FEE6-B743-B5AD-DBA2F1C833C2}">
   <dimension ref="A1:Q1512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1464" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1518" sqref="L1518"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
     <col min="7" max="8" width="10.83203125" style="3"/>
@@ -8770,28 +8778,28 @@
       <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="20" t="s">
         <v>2731</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="20" t="s">
         <v>2732</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>2733</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="20" t="s">
         <v>2734</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="20" t="s">
         <v>2735</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="20" t="s">
         <v>2736</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="20" t="s">
         <v>2737</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="20" t="s">
         <v>2738</v>
       </c>
     </row>
